--- a/Data/Config.xlsx
+++ b/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d983ce28c85be45a/Documents/UiPath/Vodafone_Assignment/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F90FFF31-C8CB-469E-8B54-180153C9979D}"/>
+  <xr:revisionPtr revIDLastSave="28" documentId="13_ncr:1_{00D541BD-CB78-4D75-8532-9AD73E8C785E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{35EFE05E-D7AC-4AF1-B6BE-189A6375A97E}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="74">
   <si>
     <t>Name</t>
   </si>
@@ -208,6 +208,45 @@
   </si>
   <si>
     <t>C:\Users\gundu\Documents\QRCodes.zip</t>
+  </si>
+  <si>
+    <t>server</t>
+  </si>
+  <si>
+    <t>imap.gmail.com</t>
+  </si>
+  <si>
+    <t>Server name for Gmail</t>
+  </si>
+  <si>
+    <t>port</t>
+  </si>
+  <si>
+    <t>Gmail port number</t>
+  </si>
+  <si>
+    <t>MailCredentials</t>
+  </si>
+  <si>
+    <t>Credentials for the gmail</t>
+  </si>
+  <si>
+    <t>Orchestrator_FolderName</t>
+  </si>
+  <si>
+    <t>Folder Name in Orchestrator</t>
+  </si>
+  <si>
+    <t>Debug_Generate Unicorn Name</t>
+  </si>
+  <si>
+    <t>QueueName</t>
+  </si>
+  <si>
+    <t>Processed_Onboarding</t>
+  </si>
+  <si>
+    <t>SheetName</t>
   </si>
 </sst>
 </file>
@@ -589,8 +628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -725,8 +764,8 @@
         <v>58</v>
       </c>
     </row>
-    <row r="17" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="18" spans="1:2" ht="14.25" customHeight="1">
+    <row r="17" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="18" spans="1:3" ht="14.25" customHeight="1">
       <c r="A18" t="s">
         <v>59</v>
       </c>
@@ -734,20 +773,74 @@
         <v>60</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="20" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="21" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="22" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="23" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="24" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="25" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="26" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="27" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="28" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="29" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="30" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="31" spans="1:2" ht="14.25" customHeight="1"/>
-    <row r="32" spans="1:2" ht="14.25" customHeight="1"/>
+    <row r="19" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="20" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A20" t="s">
+        <v>61</v>
+      </c>
+      <c r="B20" t="s">
+        <v>62</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B21">
+        <v>993</v>
+      </c>
+      <c r="C21" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A22" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" t="s">
+        <v>66</v>
+      </c>
+      <c r="C22" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A23" t="s">
+        <v>68</v>
+      </c>
+      <c r="B23" t="s">
+        <v>70</v>
+      </c>
+      <c r="C23" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A24" t="s">
+        <v>71</v>
+      </c>
+      <c r="B24" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="14.25" customHeight="1">
+      <c r="A25" t="s">
+        <v>73</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="27" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="28" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="29" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="30" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="31" spans="1:3" ht="14.25" customHeight="1"/>
+    <row r="32" spans="1:3" ht="14.25" customHeight="1"/>
     <row r="33" ht="14.25" customHeight="1"/>
     <row r="34" ht="14.25" customHeight="1"/>
     <row r="35" ht="14.25" customHeight="1"/>
